--- a/static/data/arquivo-nao-contribuinte/Não Contribuintes código de barras.xlsx
+++ b/static/data/arquivo-nao-contribuinte/Não Contribuintes código de barras.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,27 +494,32 @@
           <t>Cód Barra</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Cód Barra FCP</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>105092</v>
+        <v>105303</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21,43</t>
+          <t>6.209,28</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -524,7 +529,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21,43</t>
+          <t>6.209,28</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -535,40 +540,45 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>23/11/2025</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>85830000000214303102530901003632549097445800</t>
+          <t>85870000062092803033152501000202588752437100</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>105093</v>
+        <v>105304</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>MG</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>303,67</t>
+          <t>173,61</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -578,7 +588,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>303,67</t>
+          <t>173,61</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -589,50 +599,55 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>23/11/2025</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>85830000003036702942530901000000205995432200</t>
+          <t>85830000001736103022531501000001498483393900</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>105094</v>
+        <v>105305</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.647,69</t>
+          <t>462,97</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>38,58</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>4.647,69</t>
+          <t>501,55</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -643,50 +658,55 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>23/11/2025</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>85800000046476902942530901000000205995422000</t>
+          <t>85820000004629702912531501000000015696022800</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>85890000000385802912531501000000015696022900</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" t="n">
-        <v>105095</v>
+        <v>105306</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>47,27</t>
+          <t>968,00</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>242,00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>47,27</t>
+          <t>1.210,00</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -697,50 +717,55 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>23/11/2025</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>85870000000472703012530901000005660283202500</t>
+          <t>85830000012100002781202511110200015960258982</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>-</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>2</v>
       </c>
       <c r="C6" t="n">
-        <v>105096</v>
+        <v>105307</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>PB</t>
+          <t>RJ</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26,03</t>
+          <t>265,06</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0,00</t>
+          <t>66,27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>26,03</t>
+          <t>331,33</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -751,17 +776,199 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>05/11/2025</t>
+          <t>11/11/2025</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>17/11/2025</t>
+          <t>23/11/2025</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>85850000000260303042530901500000001591888700</t>
+          <t>85810000003313302781202511110200015960261770</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>105308</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>116,28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>116,28</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>11</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>85850000001162802942531501000000206046416900</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>105309</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>RO</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>295,70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0,00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>295,70</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>11</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>85800000002957000962531501002025240482350100</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" t="n">
+        <v>105310</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>AL</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>383,98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>32,00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>415,98</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>11</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2025</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>11/11/2025</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>23/11/2025</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>85810000003839802912531501000000015696023000</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>85890000000320002912531501000000015696017600</t>
         </is>
       </c>
     </row>
